--- a/medicine/Psychotrope/Glaabsbräu/Glaabsbräu.xlsx
+++ b/medicine/Psychotrope/Glaabsbräu/Glaabsbräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glaabsbr%C3%A4u</t>
+          <t>Glaabsbräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Glaabsbräu GmbH &amp; Co. KG est une brasserie à Seligenstadt, dans le district de Darmstadt.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glaabsbr%C3%A4u</t>
+          <t>Glaabsbräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1744, Johannes Ruf et son épouse construisent à Seligenstadt la brasserie Zum Römischen Kaiser, qui est encore aujourd'hui le siège du Glaabsbräu. En 1782, le fils Johann Georg Ruf est enrôlé dans la guilde des brasseurs de Seligenstadt. Après sa mort en 1808, son neveu Peter Josef Weidner II prend l'auberge et la brasserie. La famille Wissel suit jusqu'en 1891. Ferdinand Glaab, arrière-grand-père de l'actuel directeur général Robert Glaab, épouse Mariechen Wissel et, à partir de 1895, arrête la brasserie Zum Römischen Kaiser et fonde la brasserie Glaab &amp; Thoma GmbH avec son beau-frère, Johann Thoma.
 Ses fils Ferdinand II et Jacob rejoignent l'entreprise familiale en 1920. En 1921, les deux brasseries Glaab et Appelmann fusionnent pour former la Vereinigten Brauereien Seligenstadt. En 1931, la brasserie acquiert le procédé breveté de la boisson au malt Vitamalz mis au point par Ferdinand Glaab I et Fritz Lux. Après le départ de Jakob Appelmann, Ferdinand Glaab I fonde avec ses fils Glaabsbräu F. Glaab &amp; Co. Après sa mort en 1939, ses fils prirent la direction de la brasserie.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glaabsbr%C3%A4u</t>
+          <t>Glaabsbräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
